--- a/Gc/WorkPlanSheet.xlsx
+++ b/Gc/WorkPlanSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali-d\Dropbox\Universities\University of Bonn\Semantic Web &amp; Eis Laboratory\Quality assessment of LOD for potential dual use\work plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali-d\Dropbox\Universities\University of Bonn\Semantic Web &amp; Eis Laboratory\MA-INF3232-4313-Lab-SS2016\Gc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,9 +68,6 @@
     <t>Creating Use cases</t>
   </si>
   <si>
-    <t>Creating Requirment spesificaton document</t>
-  </si>
-  <si>
     <t>Creating System architicture</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Amal</t>
+  </si>
+  <si>
+    <t>Creating Requirment specification document</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:CM24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,10 +865,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="1"/>
@@ -893,13 +893,13 @@
     </row>
     <row r="5" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="9"/>
@@ -924,13 +924,13 @@
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="7" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -982,7 +982,7 @@
     </row>
     <row r="8" spans="1:91" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="11" spans="1:91" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="13" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="14" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="15" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="16" spans="1:91" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1515,13 +1515,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
